--- a/Code/Results/Cases/Case_1_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9721389577294771</v>
+        <v>1.016427182986297</v>
       </c>
       <c r="D2">
-        <v>1.03932966590048</v>
+        <v>1.048389751436182</v>
       </c>
       <c r="E2">
-        <v>0.982439186887086</v>
+        <v>1.017954707410919</v>
       </c>
       <c r="F2">
-        <v>1.025310265934644</v>
+        <v>1.04952443735286</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.056481815911065</v>
+        <v>1.038666745281588</v>
       </c>
       <c r="J2">
-        <v>0.9951861659619831</v>
+        <v>1.021647055083853</v>
       </c>
       <c r="K2">
-        <v>1.050266975479433</v>
+        <v>1.051149731471575</v>
       </c>
       <c r="L2">
-        <v>0.9941487171046522</v>
+        <v>1.020802360218753</v>
       </c>
       <c r="M2">
-        <v>1.036427899982249</v>
+        <v>1.052281255409021</v>
       </c>
       <c r="N2">
-        <v>0.9965994444670977</v>
+        <v>1.023097911086627</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9778260124633501</v>
+        <v>1.017575060847816</v>
       </c>
       <c r="D3">
-        <v>1.04389369960068</v>
+        <v>1.049190011978177</v>
       </c>
       <c r="E3">
-        <v>0.9870203668843809</v>
+        <v>1.01893224704502</v>
       </c>
       <c r="F3">
-        <v>1.031081318577471</v>
+        <v>1.050595856026576</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.058314618965082</v>
+        <v>1.038871032416987</v>
       </c>
       <c r="J3">
-        <v>0.9989399736676743</v>
+        <v>1.022429335216581</v>
       </c>
       <c r="K3">
-        <v>1.053994144528611</v>
+        <v>1.051762058123186</v>
       </c>
       <c r="L3">
-        <v>0.9978220633586864</v>
+        <v>1.021585132180153</v>
       </c>
       <c r="M3">
-        <v>1.041331373172426</v>
+        <v>1.05316426841827</v>
       </c>
       <c r="N3">
-        <v>1.000358583010299</v>
+        <v>1.023881302146872</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9814084176436547</v>
+        <v>1.018316930754252</v>
       </c>
       <c r="D4">
-        <v>1.046745706287378</v>
+        <v>1.049703551887514</v>
       </c>
       <c r="E4">
-        <v>0.9899131491372227</v>
+        <v>1.019564426710736</v>
       </c>
       <c r="F4">
-        <v>1.034692277351538</v>
+        <v>1.051284504423114</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.059441252348063</v>
+        <v>1.038999498912891</v>
       </c>
       <c r="J4">
-        <v>1.001299958148929</v>
+        <v>1.022934161810573</v>
       </c>
       <c r="K4">
-        <v>1.056310879618962</v>
+        <v>1.052153348614996</v>
       </c>
       <c r="L4">
-        <v>1.000134857621654</v>
+        <v>1.022090678415468</v>
       </c>
       <c r="M4">
-        <v>1.044389278687921</v>
+        <v>1.053730420915254</v>
       </c>
       <c r="N4">
-        <v>1.002721918940211</v>
+        <v>1.024386845652532</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9828922005251225</v>
+        <v>1.018628603075056</v>
       </c>
       <c r="D5">
-        <v>1.047921314354247</v>
+        <v>1.049918418405833</v>
       </c>
       <c r="E5">
-        <v>0.9911129101086005</v>
+        <v>1.019830111084538</v>
       </c>
       <c r="F5">
-        <v>1.036181946358866</v>
+        <v>1.051572903920116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.059901096837273</v>
+        <v>1.039052614827649</v>
       </c>
       <c r="J5">
-        <v>1.002276278046264</v>
+        <v>1.02314606590593</v>
       </c>
       <c r="K5">
-        <v>1.057262847435167</v>
+        <v>1.052316667261744</v>
       </c>
       <c r="L5">
-        <v>1.00109246488627</v>
+        <v>1.02230298105638</v>
       </c>
       <c r="M5">
-        <v>1.045648292165276</v>
+        <v>1.053967182649937</v>
       </c>
       <c r="N5">
-        <v>1.003699625323786</v>
+        <v>1.02459905067601</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9831400588613169</v>
+        <v>1.018680921978472</v>
       </c>
       <c r="D6">
-        <v>1.048117357148126</v>
+        <v>1.049954435277478</v>
       </c>
       <c r="E6">
-        <v>0.9913134168494857</v>
+        <v>1.019874715757676</v>
       </c>
       <c r="F6">
-        <v>1.036430435793956</v>
+        <v>1.051621262483013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.059977509227226</v>
+        <v>1.039061480932479</v>
       </c>
       <c r="J6">
-        <v>1.002439298227397</v>
+        <v>1.023181626500147</v>
       </c>
       <c r="K6">
-        <v>1.057421418507702</v>
+        <v>1.052344019971794</v>
       </c>
       <c r="L6">
-        <v>1.001252408052245</v>
+        <v>1.022338614195737</v>
       </c>
       <c r="M6">
-        <v>1.045858157840533</v>
+        <v>1.054006862753339</v>
       </c>
       <c r="N6">
-        <v>1.003862877012275</v>
+        <v>1.024634661770351</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9814283301168942</v>
+        <v>1.018321096157254</v>
       </c>
       <c r="D7">
-        <v>1.046761505579725</v>
+        <v>1.049706426975588</v>
       </c>
       <c r="E7">
-        <v>0.989929243732214</v>
+        <v>1.019567977127408</v>
       </c>
       <c r="F7">
-        <v>1.034712292442108</v>
+        <v>1.051288362386062</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.059447450489857</v>
+        <v>1.039000212153894</v>
       </c>
       <c r="J7">
-        <v>1.001313065050508</v>
+        <v>1.022936994559628</v>
       </c>
       <c r="K7">
-        <v>1.056323685299598</v>
+        <v>1.052155535524018</v>
       </c>
       <c r="L7">
-        <v>1.000147710110467</v>
+        <v>1.022093516112753</v>
       </c>
       <c r="M7">
-        <v>1.044406204671672</v>
+        <v>1.053733589444506</v>
       </c>
       <c r="N7">
-        <v>1.002735044455094</v>
+        <v>1.024389682424417</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.974081788485782</v>
+        <v>1.016815297786094</v>
       </c>
       <c r="D8">
-        <v>1.0408936002005</v>
+        <v>1.048661089625061</v>
       </c>
       <c r="E8">
-        <v>0.9840027097092637</v>
+        <v>1.018285145239922</v>
       </c>
       <c r="F8">
-        <v>1.027286863788194</v>
+        <v>1.049887487511467</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057113756924515</v>
+        <v>1.038736555182211</v>
       </c>
       <c r="J8">
-        <v>0.9964695011044883</v>
+        <v>1.021911712617704</v>
       </c>
       <c r="K8">
-        <v>1.051546730951936</v>
+        <v>1.051357689709241</v>
       </c>
       <c r="L8">
-        <v>0.9954038252180132</v>
+        <v>1.021067100802874</v>
       </c>
       <c r="M8">
-        <v>1.038109479684393</v>
+        <v>1.052580753799402</v>
       </c>
       <c r="N8">
-        <v>0.9978846020927058</v>
+        <v>1.023362944464533</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9603365520796153</v>
+        <v>1.01415503598944</v>
       </c>
       <c r="D9">
-        <v>1.029736115598711</v>
+        <v>1.046786289862826</v>
       </c>
       <c r="E9">
-        <v>0.9729741008021218</v>
+        <v>1.016021885039992</v>
       </c>
       <c r="F9">
-        <v>1.013201948782108</v>
+        <v>1.047383470577058</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052527131987728</v>
+        <v>1.038243482413679</v>
       </c>
       <c r="J9">
-        <v>0.9873721027150815</v>
+        <v>1.020094572119232</v>
       </c>
       <c r="K9">
-        <v>1.042364488620917</v>
+        <v>1.049914078242586</v>
       </c>
       <c r="L9">
-        <v>0.9865214210041681</v>
+        <v>1.019251041589998</v>
       </c>
       <c r="M9">
-        <v>1.026084404279272</v>
+        <v>1.050509355757034</v>
       </c>
       <c r="N9">
-        <v>0.9887742843540998</v>
+        <v>1.021543223418124</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9505537199269795</v>
+        <v>1.012376797610093</v>
       </c>
       <c r="D10">
-        <v>1.021682958931219</v>
+        <v>1.045514388541736</v>
       </c>
       <c r="E10">
-        <v>0.9651707680922958</v>
+        <v>1.014511141304511</v>
       </c>
       <c r="F10">
-        <v>1.003052723872666</v>
+        <v>1.045690205154306</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049119299852217</v>
+        <v>1.037895645213857</v>
       </c>
       <c r="J10">
-        <v>0.980876434912213</v>
+        <v>1.018876049379394</v>
       </c>
       <c r="K10">
-        <v>1.035671454271481</v>
+        <v>1.048926334229707</v>
       </c>
       <c r="L10">
-        <v>0.980198698610406</v>
+        <v>1.018035315920704</v>
       </c>
       <c r="M10">
-        <v>1.017367078333116</v>
+        <v>1.049101535318999</v>
       </c>
       <c r="N10">
-        <v>0.9822693919578882</v>
+        <v>1.02032297023623</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9461499563124768</v>
+        <v>1.011605649508877</v>
       </c>
       <c r="D11">
-        <v>1.0180334165029</v>
+        <v>1.044958411924014</v>
       </c>
       <c r="E11">
-        <v>0.9616703305941809</v>
+        <v>1.013856506635777</v>
       </c>
       <c r="F11">
-        <v>0.9984557824906511</v>
+        <v>1.044951311789371</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047552676515845</v>
+        <v>1.037740495179874</v>
       </c>
       <c r="J11">
-        <v>0.9779481973562613</v>
+        <v>1.018346717147492</v>
       </c>
       <c r="K11">
-        <v>1.032623077875927</v>
+        <v>1.048492619796586</v>
       </c>
       <c r="L11">
-        <v>0.977353191353976</v>
+        <v>1.017507688898918</v>
       </c>
       <c r="M11">
-        <v>1.013406879367164</v>
+        <v>1.048485545487177</v>
       </c>
       <c r="N11">
-        <v>0.9793369959687335</v>
+        <v>1.019792886291843</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9444870047049931</v>
+        <v>1.011319033927121</v>
       </c>
       <c r="D12">
-        <v>1.016651810136631</v>
+        <v>1.044751110323323</v>
       </c>
       <c r="E12">
-        <v>0.9603504579073978</v>
+        <v>1.013613273755357</v>
       </c>
       <c r="F12">
-        <v>0.9967157586866656</v>
+        <v>1.044675995894035</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046956324046474</v>
+        <v>1.037682184344046</v>
       </c>
       <c r="J12">
-        <v>0.9768418722628897</v>
+        <v>1.018149842106537</v>
       </c>
       <c r="K12">
-        <v>1.031466793174786</v>
+        <v>1.048330614834804</v>
       </c>
       <c r="L12">
-        <v>0.976278854037838</v>
+        <v>1.01731152162977</v>
       </c>
       <c r="M12">
-        <v>1.011906151228344</v>
+        <v>1.048255777427251</v>
       </c>
       <c r="N12">
-        <v>0.9782290997668318</v>
+        <v>1.019595731665748</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9448449786702716</v>
+        <v>1.011380521988614</v>
       </c>
       <c r="D13">
-        <v>1.016949373570039</v>
+        <v>1.04479561285121</v>
       </c>
       <c r="E13">
-        <v>0.9606344884680814</v>
+        <v>1.013665451333946</v>
       </c>
       <c r="F13">
-        <v>0.9970905077599561</v>
+        <v>1.044735090946591</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047084910254154</v>
+        <v>1.037694723042759</v>
       </c>
       <c r="J13">
-        <v>0.9770800487041494</v>
+        <v>1.01819208414731</v>
       </c>
       <c r="K13">
-        <v>1.031715929675935</v>
+        <v>1.048365406370622</v>
       </c>
       <c r="L13">
-        <v>0.9765101106818154</v>
+        <v>1.017353608482663</v>
       </c>
       <c r="M13">
-        <v>1.012229440070901</v>
+        <v>1.048305107012088</v>
       </c>
       <c r="N13">
-        <v>0.9784676144459576</v>
+        <v>1.019638033695063</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9460130633592803</v>
+        <v>1.01158196139877</v>
       </c>
       <c r="D14">
-        <v>1.017919752778633</v>
+        <v>1.044941292370403</v>
       </c>
       <c r="E14">
-        <v>0.9615616390297995</v>
+        <v>1.013836402415584</v>
       </c>
       <c r="F14">
-        <v>0.9983126279990451</v>
+        <v>1.044928571606085</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047503681100602</v>
+        <v>1.037735689084559</v>
       </c>
       <c r="J14">
-        <v>0.9778571364913754</v>
+        <v>1.018330448656593</v>
       </c>
       <c r="K14">
-        <v>1.032527996928886</v>
+        <v>1.048479246862608</v>
       </c>
       <c r="L14">
-        <v>0.9772647484510977</v>
+        <v>1.017491477394397</v>
       </c>
       <c r="M14">
-        <v>1.013283446733777</v>
+        <v>1.048466572420673</v>
       </c>
       <c r="N14">
-        <v>0.9792458057869743</v>
+        <v>1.01977659469782</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9467290915083189</v>
+        <v>1.011706051352975</v>
       </c>
       <c r="D15">
-        <v>1.018514139128969</v>
+        <v>1.045030946006555</v>
       </c>
       <c r="E15">
-        <v>0.9621302385229519</v>
+        <v>1.013941721380301</v>
       </c>
       <c r="F15">
-        <v>0.9990612405077655</v>
+        <v>1.045047667673156</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047759762067304</v>
+        <v>1.037760839347819</v>
       </c>
       <c r="J15">
-        <v>0.9783334142411872</v>
+        <v>1.018415665432846</v>
       </c>
       <c r="K15">
-        <v>1.033025115826463</v>
+        <v>1.048549267927591</v>
       </c>
       <c r="L15">
-        <v>0.9777273632488176</v>
+        <v>1.01757639867754</v>
       </c>
       <c r="M15">
-        <v>1.013928856001733</v>
+        <v>1.048565929069641</v>
       </c>
       <c r="N15">
-        <v>0.9797227599058206</v>
+        <v>1.01986193249167</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9508422835732033</v>
+        <v>1.012427951519364</v>
       </c>
       <c r="D16">
-        <v>1.021921611638712</v>
+        <v>1.045551176532851</v>
       </c>
       <c r="E16">
-        <v>0.9654004041230784</v>
+        <v>1.014554577174231</v>
       </c>
       <c r="F16">
-        <v>1.003353369852013</v>
+        <v>1.045739122858873</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049221290494489</v>
+        <v>1.03790584648219</v>
       </c>
       <c r="J16">
-        <v>0.981068230912286</v>
+        <v>1.018911143391592</v>
       </c>
       <c r="K16">
-        <v>1.035870482521391</v>
+        <v>1.048954991667732</v>
       </c>
       <c r="L16">
-        <v>0.9803851759206543</v>
+        <v>1.018070307185995</v>
       </c>
       <c r="M16">
-        <v>1.017625840412186</v>
+        <v>1.049142281704191</v>
       </c>
       <c r="N16">
-        <v>0.9824614603302801</v>
+        <v>1.02035811408595</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9533761286362221</v>
+        <v>1.012880468200438</v>
       </c>
       <c r="D17">
-        <v>1.024014456615134</v>
+        <v>1.045876101441905</v>
       </c>
       <c r="E17">
-        <v>0.9674182125653471</v>
+        <v>1.014938877900143</v>
       </c>
       <c r="F17">
-        <v>1.005990126074868</v>
+        <v>1.04617132754816</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.050113187233822</v>
+        <v>1.03799559171409</v>
       </c>
       <c r="J17">
-        <v>0.9827519027814381</v>
+        <v>1.019221486415713</v>
       </c>
       <c r="K17">
-        <v>1.037614131314947</v>
+        <v>1.049207880843299</v>
       </c>
       <c r="L17">
-        <v>0.982022698600761</v>
+        <v>1.018379798116014</v>
       </c>
       <c r="M17">
-        <v>1.019893935577866</v>
+        <v>1.049502099653171</v>
       </c>
       <c r="N17">
-        <v>0.9841475232066064</v>
+        <v>1.020668897832761</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9548380395921982</v>
+        <v>1.01314430186988</v>
       </c>
       <c r="D18">
-        <v>1.025219617666126</v>
+        <v>1.046065119599636</v>
       </c>
       <c r="E18">
-        <v>0.9685835404726335</v>
+        <v>1.015162988505591</v>
       </c>
       <c r="F18">
-        <v>1.007508741516927</v>
+        <v>1.046422875570972</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050624690279869</v>
+        <v>1.038047501106282</v>
       </c>
       <c r="J18">
-        <v>0.9837229028541207</v>
+        <v>1.019402339960163</v>
       </c>
       <c r="K18">
-        <v>1.038616778145742</v>
+        <v>1.049354806524378</v>
       </c>
       <c r="L18">
-        <v>0.9829675315972035</v>
+        <v>1.018560202307227</v>
       </c>
       <c r="M18">
-        <v>1.021199110919438</v>
+        <v>1.049711358520283</v>
       </c>
       <c r="N18">
-        <v>0.9851199022107677</v>
+        <v>1.02085000820999</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9553338503678568</v>
+        <v>1.013234243474581</v>
       </c>
       <c r="D19">
-        <v>1.025627952914661</v>
+        <v>1.046129484258916</v>
       </c>
       <c r="E19">
-        <v>0.9689789552702147</v>
+        <v>1.01523939675313</v>
       </c>
       <c r="F19">
-        <v>1.008023327338936</v>
+        <v>1.046508553768431</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050797641596661</v>
+        <v>1.038065126660939</v>
       </c>
       <c r="J19">
-        <v>0.9840521501020408</v>
+        <v>1.019463978522597</v>
       </c>
       <c r="K19">
-        <v>1.038956253719527</v>
+        <v>1.04940480596757</v>
       </c>
       <c r="L19">
-        <v>0.9832879816550677</v>
+        <v>1.018621695731046</v>
       </c>
       <c r="M19">
-        <v>1.021641181790557</v>
+        <v>1.049782605794168</v>
       </c>
       <c r="N19">
-        <v>0.9854496170275452</v>
+        <v>1.020911734306252</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9531059436851124</v>
+        <v>1.012831929012738</v>
       </c>
       <c r="D20">
-        <v>1.023791534590172</v>
+        <v>1.045841292318954</v>
       </c>
       <c r="E20">
-        <v>0.9672029329207495</v>
+        <v>1.014897650787199</v>
       </c>
       <c r="F20">
-        <v>1.005709244221463</v>
+        <v>1.046125012944362</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050018402921904</v>
+        <v>1.037986008151355</v>
       </c>
       <c r="J20">
-        <v>0.9825724132749643</v>
+        <v>1.019188206551323</v>
       </c>
       <c r="K20">
-        <v>1.037428552849219</v>
+        <v>1.049180808255103</v>
       </c>
       <c r="L20">
-        <v>0.981848082243627</v>
+        <v>1.018346604742526</v>
       </c>
       <c r="M20">
-        <v>1.019652440875654</v>
+        <v>1.049463558407618</v>
       </c>
       <c r="N20">
-        <v>0.9839677788044456</v>
+        <v>1.020635570707148</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9456698594513057</v>
+        <v>1.011522647416815</v>
       </c>
       <c r="D21">
-        <v>1.017634731772036</v>
+        <v>1.044898415117351</v>
       </c>
       <c r="E21">
-        <v>0.961289170784417</v>
+        <v>1.01378606359346</v>
       </c>
       <c r="F21">
-        <v>0.9979536598670865</v>
+        <v>1.044871620075269</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047380768666163</v>
+        <v>1.03772364441114</v>
       </c>
       <c r="J21">
-        <v>0.9776288292650878</v>
+        <v>1.018289710877292</v>
       </c>
       <c r="K21">
-        <v>1.032289537453968</v>
+        <v>1.048445748637298</v>
       </c>
       <c r="L21">
-        <v>0.977043016780671</v>
+        <v>1.017450883501681</v>
       </c>
       <c r="M21">
-        <v>1.012973904776576</v>
+        <v>1.048419051449932</v>
       </c>
       <c r="N21">
-        <v>0.9790171743382382</v>
+        <v>1.019735799066201</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9408359872354883</v>
+        <v>1.010698425588204</v>
       </c>
       <c r="D22">
-        <v>1.013612338025611</v>
+        <v>1.044301036299226</v>
       </c>
       <c r="E22">
-        <v>0.9574564384611591</v>
+        <v>1.013086744894684</v>
       </c>
       <c r="F22">
-        <v>0.992888066059363</v>
+        <v>1.044078597054144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045638403690467</v>
+        <v>1.037554744627711</v>
       </c>
       <c r="J22">
-        <v>0.9744119743091922</v>
+        <v>1.017723300497727</v>
       </c>
       <c r="K22">
-        <v>1.028918870516697</v>
+        <v>1.047978356260124</v>
       </c>
       <c r="L22">
-        <v>0.97392057919404</v>
+        <v>1.016886647943687</v>
       </c>
       <c r="M22">
-        <v>1.008601740680894</v>
+        <v>1.047756761807001</v>
       </c>
       <c r="N22">
-        <v>0.9757957510793267</v>
+        <v>1.019168584318928</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9434142646970904</v>
+        <v>1.011135459201395</v>
       </c>
       <c r="D23">
-        <v>1.015759610758712</v>
+        <v>1.04461815007401</v>
       </c>
       <c r="E23">
-        <v>0.959499602043708</v>
+        <v>1.013457507234019</v>
       </c>
       <c r="F23">
-        <v>0.9955921537683957</v>
+        <v>1.044499464879126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046570302336269</v>
+        <v>1.037644655201384</v>
       </c>
       <c r="J23">
-        <v>0.9761280524050341</v>
+        <v>1.018023707152083</v>
       </c>
       <c r="K23">
-        <v>1.030719464857385</v>
+        <v>1.048226625849023</v>
       </c>
       <c r="L23">
-        <v>0.9755858814036044</v>
+        <v>1.017185860831585</v>
       </c>
       <c r="M23">
-        <v>1.010936590365717</v>
+        <v>1.048108382220434</v>
       </c>
       <c r="N23">
-        <v>0.9775142662029019</v>
+        <v>1.019469417585191</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9532280780488247</v>
+        <v>1.012853862127242</v>
       </c>
       <c r="D24">
-        <v>1.023892311424713</v>
+        <v>1.045857022623829</v>
       </c>
       <c r="E24">
-        <v>0.9673002443492424</v>
+        <v>1.014916279685586</v>
       </c>
       <c r="F24">
-        <v>1.005836222310612</v>
+        <v>1.046145942218525</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.0500612587792</v>
+        <v>1.037990339902626</v>
       </c>
       <c r="J24">
-        <v>0.982653550932039</v>
+        <v>1.019203244797149</v>
       </c>
       <c r="K24">
-        <v>1.037512452147046</v>
+        <v>1.049193042985439</v>
       </c>
       <c r="L24">
-        <v>0.9819270156195375</v>
+        <v>1.018361603759597</v>
       </c>
       <c r="M24">
-        <v>1.019761616701565</v>
+        <v>1.049480975443441</v>
       </c>
       <c r="N24">
-        <v>0.9840490316863002</v>
+        <v>1.020650630309007</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9639927231542189</v>
+        <v>1.014843601981001</v>
       </c>
       <c r="D25">
-        <v>1.0327237964617</v>
+        <v>1.047274854250745</v>
       </c>
       <c r="E25">
-        <v>0.9759002041114863</v>
+        <v>1.016607323215551</v>
       </c>
       <c r="F25">
-        <v>1.016970191978553</v>
+        <v>1.048035030547581</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053772116885221</v>
+        <v>1.03837432536248</v>
       </c>
       <c r="J25">
-        <v>0.9897957562342964</v>
+        <v>1.02056559248068</v>
       </c>
       <c r="K25">
-        <v>1.044834501435557</v>
+        <v>1.050291752683983</v>
       </c>
       <c r="L25">
-        <v>0.9888845258356429</v>
+        <v>1.019721416963889</v>
       </c>
       <c r="M25">
-        <v>1.029310657992916</v>
+        <v>1.051049598612692</v>
       </c>
       <c r="N25">
-        <v>0.9912013797393092</v>
+        <v>1.022014912682513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_150/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_150/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016427182986297</v>
+        <v>0.972138957729477</v>
       </c>
       <c r="D2">
-        <v>1.048389751436182</v>
+        <v>1.03932966590048</v>
       </c>
       <c r="E2">
-        <v>1.017954707410919</v>
+        <v>0.9824391868870859</v>
       </c>
       <c r="F2">
-        <v>1.04952443735286</v>
+        <v>1.025310265934644</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038666745281588</v>
+        <v>1.056481815911066</v>
       </c>
       <c r="J2">
-        <v>1.021647055083853</v>
+        <v>0.9951861659619831</v>
       </c>
       <c r="K2">
-        <v>1.051149731471575</v>
+        <v>1.050266975479433</v>
       </c>
       <c r="L2">
-        <v>1.020802360218753</v>
+        <v>0.9941487171046521</v>
       </c>
       <c r="M2">
-        <v>1.052281255409021</v>
+        <v>1.036427899982249</v>
       </c>
       <c r="N2">
-        <v>1.023097911086627</v>
+        <v>0.9965994444670975</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017575060847816</v>
+        <v>0.9778260124633494</v>
       </c>
       <c r="D3">
-        <v>1.049190011978177</v>
+        <v>1.04389369960068</v>
       </c>
       <c r="E3">
-        <v>1.01893224704502</v>
+        <v>0.9870203668843804</v>
       </c>
       <c r="F3">
-        <v>1.050595856026576</v>
+        <v>1.031081318577471</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.038871032416987</v>
+        <v>1.058314618965082</v>
       </c>
       <c r="J3">
-        <v>1.022429335216581</v>
+        <v>0.9989399736676738</v>
       </c>
       <c r="K3">
-        <v>1.051762058123186</v>
+        <v>1.053994144528611</v>
       </c>
       <c r="L3">
-        <v>1.021585132180153</v>
+        <v>0.9978220633586861</v>
       </c>
       <c r="M3">
-        <v>1.05316426841827</v>
+        <v>1.041331373172426</v>
       </c>
       <c r="N3">
-        <v>1.023881302146872</v>
+        <v>1.000358583010298</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018316930754252</v>
+        <v>0.9814084176436545</v>
       </c>
       <c r="D4">
-        <v>1.049703551887514</v>
+        <v>1.046745706287378</v>
       </c>
       <c r="E4">
-        <v>1.019564426710736</v>
+        <v>0.9899131491372224</v>
       </c>
       <c r="F4">
-        <v>1.051284504423114</v>
+        <v>1.034692277351538</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.038999498912891</v>
+        <v>1.059441252348063</v>
       </c>
       <c r="J4">
-        <v>1.022934161810573</v>
+        <v>1.001299958148929</v>
       </c>
       <c r="K4">
-        <v>1.052153348614996</v>
+        <v>1.056310879618962</v>
       </c>
       <c r="L4">
-        <v>1.022090678415468</v>
+        <v>1.000134857621654</v>
       </c>
       <c r="M4">
-        <v>1.053730420915254</v>
+        <v>1.044389278687921</v>
       </c>
       <c r="N4">
-        <v>1.024386845652532</v>
+        <v>1.002721918940211</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018628603075056</v>
+        <v>0.9828922005251222</v>
       </c>
       <c r="D5">
-        <v>1.049918418405833</v>
+        <v>1.047921314354247</v>
       </c>
       <c r="E5">
-        <v>1.019830111084538</v>
+        <v>0.9911129101086005</v>
       </c>
       <c r="F5">
-        <v>1.051572903920116</v>
+        <v>1.036181946358867</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.039052614827649</v>
+        <v>1.059901096837273</v>
       </c>
       <c r="J5">
-        <v>1.02314606590593</v>
+        <v>1.002276278046264</v>
       </c>
       <c r="K5">
-        <v>1.052316667261744</v>
+        <v>1.057262847435168</v>
       </c>
       <c r="L5">
-        <v>1.02230298105638</v>
+        <v>1.00109246488627</v>
       </c>
       <c r="M5">
-        <v>1.053967182649937</v>
+        <v>1.045648292165277</v>
       </c>
       <c r="N5">
-        <v>1.02459905067601</v>
+        <v>1.003699625323786</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018680921978472</v>
+        <v>0.9831400588613166</v>
       </c>
       <c r="D6">
-        <v>1.049954435277478</v>
+        <v>1.048117357148127</v>
       </c>
       <c r="E6">
-        <v>1.019874715757676</v>
+        <v>0.9913134168494855</v>
       </c>
       <c r="F6">
-        <v>1.051621262483013</v>
+        <v>1.036430435793956</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.039061480932479</v>
+        <v>1.059977509227226</v>
       </c>
       <c r="J6">
-        <v>1.023181626500147</v>
+        <v>1.002439298227397</v>
       </c>
       <c r="K6">
-        <v>1.052344019971794</v>
+        <v>1.057421418507703</v>
       </c>
       <c r="L6">
-        <v>1.022338614195737</v>
+        <v>1.001252408052245</v>
       </c>
       <c r="M6">
-        <v>1.054006862753339</v>
+        <v>1.045858157840534</v>
       </c>
       <c r="N6">
-        <v>1.024634661770351</v>
+        <v>1.003862877012274</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018321096157254</v>
+        <v>0.9814283301168936</v>
       </c>
       <c r="D7">
-        <v>1.049706426975588</v>
+        <v>1.046761505579725</v>
       </c>
       <c r="E7">
-        <v>1.019567977127408</v>
+        <v>0.9899292437322134</v>
       </c>
       <c r="F7">
-        <v>1.051288362386062</v>
+        <v>1.034712292442108</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.039000212153894</v>
+        <v>1.059447450489857</v>
       </c>
       <c r="J7">
-        <v>1.022936994559628</v>
+        <v>1.001313065050508</v>
       </c>
       <c r="K7">
-        <v>1.052155535524018</v>
+        <v>1.056323685299598</v>
       </c>
       <c r="L7">
-        <v>1.022093516112753</v>
+        <v>1.000147710110466</v>
       </c>
       <c r="M7">
-        <v>1.053733589444506</v>
+        <v>1.044406204671672</v>
       </c>
       <c r="N7">
-        <v>1.024389682424417</v>
+        <v>1.002735044455094</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.016815297786094</v>
+        <v>0.974081788485782</v>
       </c>
       <c r="D8">
-        <v>1.048661089625061</v>
+        <v>1.0408936002005</v>
       </c>
       <c r="E8">
-        <v>1.018285145239922</v>
+        <v>0.9840027097092637</v>
       </c>
       <c r="F8">
-        <v>1.049887487511467</v>
+        <v>1.027286863788194</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038736555182211</v>
+        <v>1.057113756924515</v>
       </c>
       <c r="J8">
-        <v>1.021911712617704</v>
+        <v>0.9964695011044884</v>
       </c>
       <c r="K8">
-        <v>1.051357689709241</v>
+        <v>1.051546730951935</v>
       </c>
       <c r="L8">
-        <v>1.021067100802874</v>
+        <v>0.9954038252180133</v>
       </c>
       <c r="M8">
-        <v>1.052580753799402</v>
+        <v>1.038109479684392</v>
       </c>
       <c r="N8">
-        <v>1.023362944464533</v>
+        <v>0.997884602092706</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.01415503598944</v>
+        <v>0.9603365520796157</v>
       </c>
       <c r="D9">
-        <v>1.046786289862826</v>
+        <v>1.029736115598711</v>
       </c>
       <c r="E9">
-        <v>1.016021885039992</v>
+        <v>0.9729741008021221</v>
       </c>
       <c r="F9">
-        <v>1.047383470577058</v>
+        <v>1.013201948782109</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038243482413679</v>
+        <v>1.052527131987728</v>
       </c>
       <c r="J9">
-        <v>1.020094572119232</v>
+        <v>0.9873721027150819</v>
       </c>
       <c r="K9">
-        <v>1.049914078242586</v>
+        <v>1.042364488620918</v>
       </c>
       <c r="L9">
-        <v>1.019251041589998</v>
+        <v>0.9865214210041684</v>
       </c>
       <c r="M9">
-        <v>1.050509355757034</v>
+        <v>1.026084404279272</v>
       </c>
       <c r="N9">
-        <v>1.021543223418124</v>
+        <v>0.9887742843541003</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012376797610093</v>
+        <v>0.95055371992698</v>
       </c>
       <c r="D10">
-        <v>1.045514388541736</v>
+        <v>1.02168295893122</v>
       </c>
       <c r="E10">
-        <v>1.014511141304511</v>
+        <v>0.9651707680922966</v>
       </c>
       <c r="F10">
-        <v>1.045690205154306</v>
+        <v>1.003052723872666</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.037895645213857</v>
+        <v>1.049119299852218</v>
       </c>
       <c r="J10">
-        <v>1.018876049379394</v>
+        <v>0.9808764349122138</v>
       </c>
       <c r="K10">
-        <v>1.048926334229707</v>
+        <v>1.035671454271481</v>
       </c>
       <c r="L10">
-        <v>1.018035315920704</v>
+        <v>0.9801986986104066</v>
       </c>
       <c r="M10">
-        <v>1.049101535318999</v>
+        <v>1.017367078333116</v>
       </c>
       <c r="N10">
-        <v>1.02032297023623</v>
+        <v>0.9822693919578889</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.011605649508877</v>
+        <v>0.946149956312477</v>
       </c>
       <c r="D11">
-        <v>1.044958411924014</v>
+        <v>1.018033416502901</v>
       </c>
       <c r="E11">
-        <v>1.013856506635777</v>
+        <v>0.9616703305941811</v>
       </c>
       <c r="F11">
-        <v>1.044951311789371</v>
+        <v>0.9984557824906524</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.037740495179874</v>
+        <v>1.047552676515846</v>
       </c>
       <c r="J11">
-        <v>1.018346717147492</v>
+        <v>0.9779481973562614</v>
       </c>
       <c r="K11">
-        <v>1.048492619796586</v>
+        <v>1.032623077875928</v>
       </c>
       <c r="L11">
-        <v>1.017507688898918</v>
+        <v>0.977353191353976</v>
       </c>
       <c r="M11">
-        <v>1.048485545487177</v>
+        <v>1.013406879367165</v>
       </c>
       <c r="N11">
-        <v>1.019792886291843</v>
+        <v>0.9793369959687336</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011319033927121</v>
+        <v>0.9444870047049939</v>
       </c>
       <c r="D12">
-        <v>1.044751110323323</v>
+        <v>1.016651810136631</v>
       </c>
       <c r="E12">
-        <v>1.013613273755357</v>
+        <v>0.9603504579073987</v>
       </c>
       <c r="F12">
-        <v>1.044675995894035</v>
+        <v>0.9967157586866658</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.037682184344046</v>
+        <v>1.046956324046474</v>
       </c>
       <c r="J12">
-        <v>1.018149842106537</v>
+        <v>0.9768418722628904</v>
       </c>
       <c r="K12">
-        <v>1.048330614834804</v>
+        <v>1.031466793174786</v>
       </c>
       <c r="L12">
-        <v>1.01731152162977</v>
+        <v>0.9762788540378391</v>
       </c>
       <c r="M12">
-        <v>1.048255777427251</v>
+        <v>1.011906151228344</v>
       </c>
       <c r="N12">
-        <v>1.019595731665748</v>
+        <v>0.9782290997668327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.011380521988614</v>
+        <v>0.9448449786702713</v>
       </c>
       <c r="D13">
-        <v>1.04479561285121</v>
+        <v>1.01694937357004</v>
       </c>
       <c r="E13">
-        <v>1.013665451333946</v>
+        <v>0.960634488468081</v>
       </c>
       <c r="F13">
-        <v>1.044735090946591</v>
+        <v>0.9970905077599566</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.037694723042759</v>
+        <v>1.047084910254154</v>
       </c>
       <c r="J13">
-        <v>1.01819208414731</v>
+        <v>0.9770800487041492</v>
       </c>
       <c r="K13">
-        <v>1.048365406370622</v>
+        <v>1.031715929675936</v>
       </c>
       <c r="L13">
-        <v>1.017353608482663</v>
+        <v>0.976510110681815</v>
       </c>
       <c r="M13">
-        <v>1.048305107012088</v>
+        <v>1.012229440070901</v>
       </c>
       <c r="N13">
-        <v>1.019638033695063</v>
+        <v>0.9784676144459571</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.01158196139877</v>
+        <v>0.9460130633592811</v>
       </c>
       <c r="D14">
-        <v>1.044941292370403</v>
+        <v>1.017919752778634</v>
       </c>
       <c r="E14">
-        <v>1.013836402415584</v>
+        <v>0.9615616390298004</v>
       </c>
       <c r="F14">
-        <v>1.044928571606085</v>
+        <v>0.9983126279990454</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.037735689084559</v>
+        <v>1.047503681100603</v>
       </c>
       <c r="J14">
-        <v>1.018330448656593</v>
+        <v>0.9778571364913762</v>
       </c>
       <c r="K14">
-        <v>1.048479246862608</v>
+        <v>1.032527996928886</v>
       </c>
       <c r="L14">
-        <v>1.017491477394397</v>
+        <v>0.9772647484510986</v>
       </c>
       <c r="M14">
-        <v>1.048466572420673</v>
+        <v>1.013283446733777</v>
       </c>
       <c r="N14">
-        <v>1.01977659469782</v>
+        <v>0.9792458057869752</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.011706051352975</v>
+        <v>0.9467290915083189</v>
       </c>
       <c r="D15">
-        <v>1.045030946006555</v>
+        <v>1.01851413912897</v>
       </c>
       <c r="E15">
-        <v>1.013941721380301</v>
+        <v>0.9621302385229519</v>
       </c>
       <c r="F15">
-        <v>1.045047667673156</v>
+        <v>0.9990612405077661</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.037760839347819</v>
+        <v>1.047759762067304</v>
       </c>
       <c r="J15">
-        <v>1.018415665432846</v>
+        <v>0.9783334142411871</v>
       </c>
       <c r="K15">
-        <v>1.048549267927591</v>
+        <v>1.033025115826464</v>
       </c>
       <c r="L15">
-        <v>1.01757639867754</v>
+        <v>0.9777273632488174</v>
       </c>
       <c r="M15">
-        <v>1.048565929069641</v>
+        <v>1.013928856001733</v>
       </c>
       <c r="N15">
-        <v>1.01986193249167</v>
+        <v>0.9797227599058208</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.012427951519364</v>
+        <v>0.9508422835732041</v>
       </c>
       <c r="D16">
-        <v>1.045551176532851</v>
+        <v>1.021921611638713</v>
       </c>
       <c r="E16">
-        <v>1.014554577174231</v>
+        <v>0.965400404123079</v>
       </c>
       <c r="F16">
-        <v>1.045739122858873</v>
+        <v>1.003353369852014</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03790584648219</v>
+        <v>1.049221290494489</v>
       </c>
       <c r="J16">
-        <v>1.018911143391592</v>
+        <v>0.9810682309122867</v>
       </c>
       <c r="K16">
-        <v>1.048954991667732</v>
+        <v>1.035870482521391</v>
       </c>
       <c r="L16">
-        <v>1.018070307185995</v>
+        <v>0.9803851759206549</v>
       </c>
       <c r="M16">
-        <v>1.049142281704191</v>
+        <v>1.017625840412187</v>
       </c>
       <c r="N16">
-        <v>1.02035811408595</v>
+        <v>0.9824614603302809</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.012880468200438</v>
+        <v>0.953376128636222</v>
       </c>
       <c r="D17">
-        <v>1.045876101441905</v>
+        <v>1.024014456615134</v>
       </c>
       <c r="E17">
-        <v>1.014938877900143</v>
+        <v>0.9674182125653468</v>
       </c>
       <c r="F17">
-        <v>1.04617132754816</v>
+        <v>1.005990126074868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03799559171409</v>
+        <v>1.050113187233822</v>
       </c>
       <c r="J17">
-        <v>1.019221486415713</v>
+        <v>0.9827519027814379</v>
       </c>
       <c r="K17">
-        <v>1.049207880843299</v>
+        <v>1.037614131314947</v>
       </c>
       <c r="L17">
-        <v>1.018379798116014</v>
+        <v>0.9820226986007607</v>
       </c>
       <c r="M17">
-        <v>1.049502099653171</v>
+        <v>1.019893935577865</v>
       </c>
       <c r="N17">
-        <v>1.020668897832761</v>
+        <v>0.9841475232066061</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.01314430186988</v>
+        <v>0.9548380395921974</v>
       </c>
       <c r="D18">
-        <v>1.046065119599636</v>
+        <v>1.025219617666126</v>
       </c>
       <c r="E18">
-        <v>1.015162988505591</v>
+        <v>0.9685835404726331</v>
       </c>
       <c r="F18">
-        <v>1.046422875570972</v>
+        <v>1.007508741516927</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038047501106282</v>
+        <v>1.050624690279869</v>
       </c>
       <c r="J18">
-        <v>1.019402339960163</v>
+        <v>0.9837229028541202</v>
       </c>
       <c r="K18">
-        <v>1.049354806524378</v>
+        <v>1.038616778145741</v>
       </c>
       <c r="L18">
-        <v>1.018560202307227</v>
+        <v>0.9829675315972027</v>
       </c>
       <c r="M18">
-        <v>1.049711358520283</v>
+        <v>1.021199110919438</v>
       </c>
       <c r="N18">
-        <v>1.02085000820999</v>
+        <v>0.9851199022107672</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013234243474581</v>
+        <v>0.9553338503678572</v>
       </c>
       <c r="D19">
-        <v>1.046129484258916</v>
+        <v>1.025627952914661</v>
       </c>
       <c r="E19">
-        <v>1.01523939675313</v>
+        <v>0.9689789552702152</v>
       </c>
       <c r="F19">
-        <v>1.046508553768431</v>
+        <v>1.008023327338937</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038065126660939</v>
+        <v>1.050797641596661</v>
       </c>
       <c r="J19">
-        <v>1.019463978522597</v>
+        <v>0.9840521501020412</v>
       </c>
       <c r="K19">
-        <v>1.04940480596757</v>
+        <v>1.038956253719527</v>
       </c>
       <c r="L19">
-        <v>1.018621695731046</v>
+        <v>0.9832879816550683</v>
       </c>
       <c r="M19">
-        <v>1.049782605794168</v>
+        <v>1.021641181790557</v>
       </c>
       <c r="N19">
-        <v>1.020911734306252</v>
+        <v>0.9854496170275456</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.012831929012738</v>
+        <v>0.9531059436851128</v>
       </c>
       <c r="D20">
-        <v>1.045841292318954</v>
+        <v>1.023791534590171</v>
       </c>
       <c r="E20">
-        <v>1.014897650787199</v>
+        <v>0.96720293292075</v>
       </c>
       <c r="F20">
-        <v>1.046125012944362</v>
+        <v>1.005709244221462</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037986008151355</v>
+        <v>1.050018402921904</v>
       </c>
       <c r="J20">
-        <v>1.019188206551323</v>
+        <v>0.9825724132749646</v>
       </c>
       <c r="K20">
-        <v>1.049180808255103</v>
+        <v>1.037428552849218</v>
       </c>
       <c r="L20">
-        <v>1.018346604742526</v>
+        <v>0.9818480822436272</v>
       </c>
       <c r="M20">
-        <v>1.049463558407618</v>
+        <v>1.019652440875653</v>
       </c>
       <c r="N20">
-        <v>1.020635570707148</v>
+        <v>0.9839677788044463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.011522647416815</v>
+        <v>0.9456698594513052</v>
       </c>
       <c r="D21">
-        <v>1.044898415117351</v>
+        <v>1.017634731772035</v>
       </c>
       <c r="E21">
-        <v>1.01378606359346</v>
+        <v>0.9612891707844164</v>
       </c>
       <c r="F21">
-        <v>1.044871620075269</v>
+        <v>0.9979536598670854</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03772364441114</v>
+        <v>1.047380768666162</v>
       </c>
       <c r="J21">
-        <v>1.018289710877292</v>
+        <v>0.9776288292650873</v>
       </c>
       <c r="K21">
-        <v>1.048445748637298</v>
+        <v>1.032289537453968</v>
       </c>
       <c r="L21">
-        <v>1.017450883501681</v>
+        <v>0.9770430167806705</v>
       </c>
       <c r="M21">
-        <v>1.048419051449932</v>
+        <v>1.012973904776575</v>
       </c>
       <c r="N21">
-        <v>1.019735799066201</v>
+        <v>0.9790171743382379</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.010698425588204</v>
+        <v>0.940835987235488</v>
       </c>
       <c r="D22">
-        <v>1.044301036299226</v>
+        <v>1.01361233802561</v>
       </c>
       <c r="E22">
-        <v>1.013086744894684</v>
+        <v>0.957456438461159</v>
       </c>
       <c r="F22">
-        <v>1.044078597054144</v>
+        <v>0.992888066059362</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.037554744627711</v>
+        <v>1.045638403690466</v>
       </c>
       <c r="J22">
-        <v>1.017723300497727</v>
+        <v>0.9744119743091921</v>
       </c>
       <c r="K22">
-        <v>1.047978356260124</v>
+        <v>1.028918870516696</v>
       </c>
       <c r="L22">
-        <v>1.016886647943687</v>
+        <v>0.9739205791940398</v>
       </c>
       <c r="M22">
-        <v>1.047756761807001</v>
+        <v>1.008601740680893</v>
       </c>
       <c r="N22">
-        <v>1.019168584318928</v>
+        <v>0.9757957510793265</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011135459201395</v>
+        <v>0.9434142646970904</v>
       </c>
       <c r="D23">
-        <v>1.04461815007401</v>
+        <v>1.015759610758712</v>
       </c>
       <c r="E23">
-        <v>1.013457507234019</v>
+        <v>0.9594996020437077</v>
       </c>
       <c r="F23">
-        <v>1.044499464879126</v>
+        <v>0.9955921537683957</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.037644655201384</v>
+        <v>1.046570302336269</v>
       </c>
       <c r="J23">
-        <v>1.018023707152083</v>
+        <v>0.9761280524050338</v>
       </c>
       <c r="K23">
-        <v>1.048226625849023</v>
+        <v>1.030719464857385</v>
       </c>
       <c r="L23">
-        <v>1.017185860831585</v>
+        <v>0.9755858814036038</v>
       </c>
       <c r="M23">
-        <v>1.048108382220434</v>
+        <v>1.010936590365717</v>
       </c>
       <c r="N23">
-        <v>1.019469417585191</v>
+        <v>0.9775142662029016</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.012853862127242</v>
+        <v>0.9532280780488255</v>
       </c>
       <c r="D24">
-        <v>1.045857022623829</v>
+        <v>1.023892311424714</v>
       </c>
       <c r="E24">
-        <v>1.014916279685586</v>
+        <v>0.9673002443492426</v>
       </c>
       <c r="F24">
-        <v>1.046145942218525</v>
+        <v>1.005836222310613</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037990339902626</v>
+        <v>1.050061258779201</v>
       </c>
       <c r="J24">
-        <v>1.019203244797149</v>
+        <v>0.9826535509320397</v>
       </c>
       <c r="K24">
-        <v>1.049193042985439</v>
+        <v>1.037512452147047</v>
       </c>
       <c r="L24">
-        <v>1.018361603759597</v>
+        <v>0.9819270156195378</v>
       </c>
       <c r="M24">
-        <v>1.049480975443441</v>
+        <v>1.019761616701566</v>
       </c>
       <c r="N24">
-        <v>1.020650630309007</v>
+        <v>0.9840490316863009</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.014843601981001</v>
+        <v>0.9639927231542187</v>
       </c>
       <c r="D25">
-        <v>1.047274854250745</v>
+        <v>1.0327237964617</v>
       </c>
       <c r="E25">
-        <v>1.016607323215551</v>
+        <v>0.9759002041114857</v>
       </c>
       <c r="F25">
-        <v>1.048035030547581</v>
+        <v>1.016970191978553</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03837432536248</v>
+        <v>1.053772116885221</v>
       </c>
       <c r="J25">
-        <v>1.02056559248068</v>
+        <v>0.9897957562342962</v>
       </c>
       <c r="K25">
-        <v>1.050291752683983</v>
+        <v>1.044834501435557</v>
       </c>
       <c r="L25">
-        <v>1.019721416963889</v>
+        <v>0.9888845258356423</v>
       </c>
       <c r="M25">
-        <v>1.051049598612692</v>
+        <v>1.029310657992916</v>
       </c>
       <c r="N25">
-        <v>1.022014912682513</v>
+        <v>0.9912013797393091</v>
       </c>
     </row>
   </sheetData>
